--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H2">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I2">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J2">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>7.261790020740889</v>
+        <v>5.119746508425222</v>
       </c>
       <c r="R2">
-        <v>65.356110186668</v>
+        <v>46.077718575827</v>
       </c>
       <c r="S2">
-        <v>0.0004053093216499257</v>
+        <v>0.0002992759846664027</v>
       </c>
       <c r="T2">
-        <v>0.0004675882217952748</v>
+        <v>0.0003406280398277476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H3">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I3">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J3">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
-        <v>366.1313494475202</v>
+        <v>473.7891216015851</v>
       </c>
       <c r="R3">
-        <v>3295.182145027682</v>
+        <v>4264.102094414266</v>
       </c>
       <c r="S3">
-        <v>0.02043524371477297</v>
+        <v>0.02769545438591619</v>
       </c>
       <c r="T3">
-        <v>0.02357527636336194</v>
+        <v>0.03152223640707142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H4">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I4">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J4">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>0.7931705906273334</v>
+        <v>1.213169081973556</v>
       </c>
       <c r="R4">
-        <v>7.138535315646</v>
+        <v>10.918521737762</v>
       </c>
       <c r="S4">
-        <v>4.426999859836711E-05</v>
+        <v>7.091608363363067E-05</v>
       </c>
       <c r="T4">
-        <v>5.107242497957874E-05</v>
+        <v>8.071481775362122E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H5">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I5">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J5">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>114.338852362098</v>
+        <v>183.2481299004788</v>
       </c>
       <c r="R5">
-        <v>686.0331141725879</v>
+        <v>1099.488779402873</v>
       </c>
       <c r="S5">
-        <v>0.006381705138368186</v>
+        <v>0.01071181247430772</v>
       </c>
       <c r="T5">
-        <v>0.004908202202249044</v>
+        <v>0.008127935134728655</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H6">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I6">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J6">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>3.928268522906</v>
+        <v>1.123325780396667</v>
       </c>
       <c r="R6">
-        <v>35.354416706154</v>
+        <v>10.10993202357</v>
       </c>
       <c r="S6">
-        <v>0.0002192522567755746</v>
+        <v>6.566427233772836E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002529420553491252</v>
+        <v>7.473734452180646E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>517.298425</v>
       </c>
       <c r="I7">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J7">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N7">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O7">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P7">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q7">
-        <v>208.8260170393445</v>
+        <v>113.7735235200472</v>
       </c>
       <c r="R7">
-        <v>1879.4341533541</v>
+        <v>1023.961711680425</v>
       </c>
       <c r="S7">
-        <v>0.01165540879966634</v>
+        <v>0.006650658040275037</v>
       </c>
       <c r="T7">
-        <v>0.01344635216566818</v>
+        <v>0.007569603736660444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>517.298425</v>
       </c>
       <c r="I8">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J8">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P8">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q8">
         <v>10528.77475112746</v>
@@ -948,10 +948,10 @@
         <v>94758.97276014714</v>
       </c>
       <c r="S8">
-        <v>0.5876527054618623</v>
+        <v>0.6154620010559165</v>
       </c>
       <c r="T8">
-        <v>0.6779500714701729</v>
+        <v>0.7005026321835539</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>517.298425</v>
       </c>
       <c r="I9">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J9">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N9">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O9">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P9">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q9">
-        <v>22.80906702071667</v>
+        <v>26.95963967250555</v>
       </c>
       <c r="R9">
-        <v>205.28160318645</v>
+        <v>242.63675705255</v>
       </c>
       <c r="S9">
-        <v>0.001273064555051836</v>
+        <v>0.001575932069285644</v>
       </c>
       <c r="T9">
-        <v>0.00146868073278963</v>
+        <v>0.001793684355464818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>517.298425</v>
       </c>
       <c r="I10">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J10">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N10">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O10">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P10">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q10">
-        <v>3288.022245676349</v>
+        <v>4072.230018210345</v>
       </c>
       <c r="R10">
-        <v>19728.1334740581</v>
+        <v>24433.38010926207</v>
       </c>
       <c r="S10">
-        <v>0.1835175710339502</v>
+        <v>0.238043162192194</v>
       </c>
       <c r="T10">
-        <v>0.1411443065403913</v>
+        <v>0.1806229698479563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>517.298425</v>
       </c>
       <c r="I11">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J11">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N11">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O11">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P11">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q11">
-        <v>112.96452626095</v>
+        <v>24.96309766241667</v>
       </c>
       <c r="R11">
-        <v>1016.68073634855</v>
+        <v>224.66787896175</v>
       </c>
       <c r="S11">
-        <v>0.006304998544237658</v>
+        <v>0.001459223737141876</v>
       </c>
       <c r="T11">
-        <v>0.007273810150037103</v>
+        <v>0.001660850007082301</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H12">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I12">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J12">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N12">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O12">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P12">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q12">
-        <v>0.1051435939942222</v>
+        <v>0.03457797507744444</v>
       </c>
       <c r="R12">
-        <v>0.946292345948</v>
+        <v>0.311201775697</v>
       </c>
       <c r="S12">
-        <v>5.868481274715449E-06</v>
+        <v>2.021263654761602E-06</v>
       </c>
       <c r="T12">
-        <v>6.770218638724383E-06</v>
+        <v>2.300549031570211E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H13">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I13">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J13">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P13">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q13">
-        <v>5.301222679933556</v>
+        <v>3.199898356636222</v>
       </c>
       <c r="R13">
-        <v>47.711004119402</v>
+        <v>28.799085209726</v>
       </c>
       <c r="S13">
-        <v>0.0002958822772597678</v>
+        <v>0.0001870508100232628</v>
       </c>
       <c r="T13">
-        <v>0.0003413468689085025</v>
+        <v>0.0002128963031812862</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H14">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I14">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J14">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N14">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O14">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P14">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q14">
-        <v>0.01148433186733333</v>
+        <v>0.00819355610911111</v>
       </c>
       <c r="R14">
-        <v>0.103358986806</v>
+        <v>0.073742004982</v>
       </c>
       <c r="S14">
-        <v>6.409861405324137E-07</v>
+        <v>4.789562468450995E-07</v>
       </c>
       <c r="T14">
-        <v>7.394785997688939E-07</v>
+        <v>5.451353796662195E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H15">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I15">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J15">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N15">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O15">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P15">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q15">
-        <v>1.655514389178</v>
+        <v>1.237629491667167</v>
       </c>
       <c r="R15">
-        <v>9.933086335067999</v>
+        <v>7.425776950003</v>
       </c>
       <c r="S15">
-        <v>9.24008284655644E-05</v>
+        <v>7.234592262748561E-05</v>
       </c>
       <c r="T15">
-        <v>7.10659517998799E-05</v>
+        <v>5.48948152134547E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H16">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I16">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J16">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N16">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O16">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P16">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q16">
-        <v>0.056877473666</v>
+        <v>0.007586768363333334</v>
       </c>
       <c r="R16">
-        <v>0.511897262994</v>
+        <v>0.06828091527000001</v>
       </c>
       <c r="S16">
-        <v>3.174557540618061E-06</v>
+        <v>4.434863266444979E-07</v>
       </c>
       <c r="T16">
-        <v>3.662352766429772E-06</v>
+        <v>5.047644511259786E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H17">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I17">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J17">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N17">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O17">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P17">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q17">
-        <v>47.93549793235267</v>
+        <v>12.835057681703</v>
       </c>
       <c r="R17">
-        <v>287.612987594116</v>
+        <v>77.01034609021799</v>
       </c>
       <c r="S17">
-        <v>0.002675470386009736</v>
+        <v>0.0007502763114580959</v>
       </c>
       <c r="T17">
-        <v>0.002057718016727877</v>
+        <v>0.0005692964852849508</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H18">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I18">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J18">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P18">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q18">
-        <v>2416.854314746555</v>
+        <v>1187.775741379474</v>
       </c>
       <c r="R18">
-        <v>14501.12588847933</v>
+        <v>7126.654448276843</v>
       </c>
       <c r="S18">
-        <v>0.134894231317457</v>
+        <v>0.06943170994486365</v>
       </c>
       <c r="T18">
-        <v>0.1037478462053061</v>
+        <v>0.05268356182286679</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H19">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I19">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J19">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N19">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O19">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P19">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q19">
-        <v>5.235765162367</v>
+        <v>3.041380099417999</v>
       </c>
       <c r="R19">
-        <v>31.414590974202</v>
+        <v>18.248280596508</v>
       </c>
       <c r="S19">
-        <v>0.0002922288334165813</v>
+        <v>0.0001777845880651022</v>
       </c>
       <c r="T19">
-        <v>0.0002247546968462243</v>
+        <v>0.0001348998223422497</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H20">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I20">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J20">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N20">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O20">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P20">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q20">
-        <v>754.7574090322888</v>
+        <v>459.3978067988954</v>
       </c>
       <c r="R20">
-        <v>3019.029636129155</v>
+        <v>1837.591227195582</v>
       </c>
       <c r="S20">
-        <v>0.04212600647931181</v>
+        <v>0.02685420669892008</v>
       </c>
       <c r="T20">
-        <v>0.02159955197873499</v>
+        <v>0.01358433353626736</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H21">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I21">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J21">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N21">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O21">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P21">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q21">
-        <v>25.930728803733</v>
+        <v>2.81614551873</v>
       </c>
       <c r="R21">
-        <v>155.584372822398</v>
+        <v>16.89687311238</v>
       </c>
       <c r="S21">
-        <v>0.001447296888413323</v>
+        <v>0.0001646184477483116</v>
       </c>
       <c r="T21">
-        <v>0.001113123471078276</v>
+        <v>0.0001249095863549896</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H22">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I22">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J22">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N22">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O22">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P22">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q22">
-        <v>0.07325524335022224</v>
+        <v>0.04283202410955556</v>
       </c>
       <c r="R22">
-        <v>0.6592971901520001</v>
+        <v>0.385488216986</v>
       </c>
       <c r="S22">
-        <v>4.088665866787148E-06</v>
+        <v>2.50375602962913E-06</v>
       </c>
       <c r="T22">
-        <v>4.716920880041616E-06</v>
+        <v>2.849709138974616E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H23">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I23">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J23">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>183.180478</v>
       </c>
       <c r="O23">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P23">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q23">
-        <v>3.693447624527556</v>
+        <v>3.963740596509778</v>
       </c>
       <c r="R23">
-        <v>33.241028620748</v>
+        <v>35.673665368588</v>
       </c>
       <c r="S23">
-        <v>0.0002061459704798875</v>
+        <v>0.0002317013875648965</v>
       </c>
       <c r="T23">
-        <v>0.000237821887181285</v>
+        <v>0.0002637164139968499</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H24">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I24">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J24">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N24">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O24">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P24">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q24">
-        <v>0.008001319849333334</v>
+        <v>0.01014942581288889</v>
       </c>
       <c r="R24">
-        <v>0.07201187864400001</v>
+        <v>0.09134483231599999</v>
       </c>
       <c r="S24">
-        <v>4.465854164296683E-07</v>
+        <v>5.932870697704176E-07</v>
       </c>
       <c r="T24">
-        <v>5.152067065667231E-07</v>
+        <v>6.752637097036425E-07</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H25">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I25">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J25">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N25">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O25">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P25">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q25">
-        <v>1.153423664172</v>
+        <v>1.533061901602333</v>
       </c>
       <c r="R25">
-        <v>6.920541985032</v>
+        <v>9.198371409613999</v>
       </c>
       <c r="S25">
-        <v>6.43771524053003E-05</v>
+        <v>8.961549354085317E-05</v>
       </c>
       <c r="T25">
-        <v>4.951279859523767E-05</v>
+        <v>6.799866225382401E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H26">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I26">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J26">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N26">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O26">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P26">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q26">
-        <v>0.039627456284</v>
+        <v>0.009397792806666668</v>
       </c>
       <c r="R26">
-        <v>0.356647106556</v>
+        <v>0.08458013526000001</v>
       </c>
       <c r="S26">
-        <v>2.211765608659317E-06</v>
+        <v>5.493501858495544E-07</v>
       </c>
       <c r="T26">
-        <v>2.55162043589565E-06</v>
+        <v>6.252559061614192E-07</v>
       </c>
     </row>
   </sheetData>
